--- a/code/BlueHr/BlueHrWeb/Template/部门导文件模板.xlsx
+++ b/code/BlueHr/BlueHrWeb/Template/部门导文件模板.xlsx
@@ -74,8 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -380,25 +381,27 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
